--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_39.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_39.xlsx
@@ -508,197 +508,197 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_0</t>
+          <t>model_1_39_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9943320914403365</v>
+        <v>0.8412858941496782</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7974810870913418</v>
+        <v>0.6025615092513932</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7425957413848152</v>
+        <v>0.7460668361472639</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9951614075376545</v>
+        <v>0.8181480553172316</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02359282069480579</v>
+        <v>0.3761830047816148</v>
       </c>
       <c r="G2" t="n">
-        <v>1.354244903134046</v>
+        <v>2.657673017671911</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9207201079100553</v>
+        <v>0.9083042032104149</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0154687071815308</v>
+        <v>0.9525491729071756</v>
       </c>
       <c r="J2" t="n">
-        <v>0.407956263447096</v>
+        <v>1.080627430687515</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1535995465319016</v>
+        <v>0.6133375944629637</v>
       </c>
       <c r="L2" t="n">
-        <v>1.362746147818463</v>
+        <v>0.78387866437403</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1560185858465636</v>
+        <v>0.6229970484630963</v>
       </c>
       <c r="N2" t="n">
-        <v>137.4936256421568</v>
+        <v>35.95535907830955</v>
       </c>
       <c r="O2" t="n">
-        <v>278.8287981853732</v>
+        <v>72.91994266653536</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_1</t>
+          <t>model_1_39_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9943224914041913</v>
+        <v>0.8413136921540063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7973718412824893</v>
+        <v>0.6025608668544938</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7422360603651317</v>
+        <v>0.7459787023909132</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9944919796199799</v>
+        <v>0.8183920369756357</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02363278110155106</v>
+        <v>0.3761171181564844</v>
       </c>
       <c r="G3" t="n">
-        <v>1.354975430360874</v>
+        <v>2.657677313382935</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9220066660619599</v>
+        <v>0.9086194525465923</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01760883047528511</v>
+        <v>0.9512711853259994</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4084619437799926</v>
+        <v>1.081235159278917</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1537295713307985</v>
+        <v>0.6132838805614284</v>
       </c>
       <c r="L3" t="n">
-        <v>1.363360550131759</v>
+        <v>0.7839165169756681</v>
       </c>
       <c r="M3" t="n">
-        <v>0.156150658406066</v>
+        <v>0.6229424886213061</v>
       </c>
       <c r="N3" t="n">
-        <v>137.4902410020665</v>
+        <v>35.95570939926944</v>
       </c>
       <c r="O3" t="n">
-        <v>278.8254135452829</v>
+        <v>72.92029298749526</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_2</t>
+          <t>model_1_39_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9942954168613312</v>
+        <v>0.8413398854051702</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7972107274910846</v>
+        <v>0.6025590104432273</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7417249231777558</v>
+        <v>0.7458883298654324</v>
       </c>
       <c r="E4" t="n">
-        <v>0.993723247031108</v>
+        <v>0.8186368608551302</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02374547960901072</v>
+        <v>0.3760550351054849</v>
       </c>
       <c r="G4" t="n">
-        <v>1.356052799025858</v>
+        <v>2.657689727213622</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9238349741437664</v>
+        <v>0.9089427098301373</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02006642520158205</v>
+        <v>0.9499887861505202</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4093669630712395</v>
+        <v>1.081868015483486</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1540956832912938</v>
+        <v>0.6132332632086137</v>
       </c>
       <c r="L4" t="n">
-        <v>1.365093320874806</v>
+        <v>0.7839521843815084</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1565225362639614</v>
+        <v>0.6228910740957834</v>
       </c>
       <c r="N4" t="n">
-        <v>137.4807261977383</v>
+        <v>35.95603955268377</v>
       </c>
       <c r="O4" t="n">
-        <v>278.8158987409547</v>
+        <v>72.92062314090958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_3</t>
+          <t>model_1_39_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9940567493634261</v>
+        <v>0.8413645798594459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.796266981683428</v>
+        <v>0.6025559542346837</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7394979223091271</v>
+        <v>0.7457958997776907</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9919233960301503</v>
+        <v>0.8188827011991381</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02473893944070658</v>
+        <v>0.3759965044918315</v>
       </c>
       <c r="G5" t="n">
-        <v>1.362363631587207</v>
+        <v>2.657710164094226</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9318008271219214</v>
+        <v>0.909273326894585</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02582044733112973</v>
+        <v>0.9487010626853661</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4162536010217099</v>
+        <v>1.082526750692364</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1572861705322708</v>
+        <v>0.6131855383909763</v>
       </c>
       <c r="L5" t="n">
-        <v>1.380368040740727</v>
+        <v>0.783985810872437</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1597632704896667</v>
+        <v>0.6228425976599755</v>
       </c>
       <c r="N5" t="n">
-        <v>137.3987535622754</v>
+        <v>35.95635086439947</v>
       </c>
       <c r="O5" t="n">
-        <v>278.7339261054918</v>
+        <v>72.92093445262529</v>
       </c>
     </row>
     <row r="6">
@@ -708,291 +708,291 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9940278389725755</v>
+        <v>0.8413876762551393</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7962283006399206</v>
+        <v>0.6025516277961666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7395528438768588</v>
+        <v>0.7457009426501061</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9905840417402654</v>
+        <v>0.8191295384460855</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02485927971443832</v>
+        <v>0.3759417615848603</v>
       </c>
       <c r="G6" t="n">
-        <v>1.362622291903251</v>
+        <v>2.657739095008512</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9316043758586807</v>
+        <v>0.9096129830340244</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03010228744967417</v>
+        <v>0.947408117394995</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4153466160839325</v>
+        <v>1.083206907187723</v>
       </c>
       <c r="K6" t="n">
-        <v>0.15766825842394</v>
+        <v>0.6131408986398317</v>
       </c>
       <c r="L6" t="n">
-        <v>1.382218305755167</v>
+        <v>0.7840172612835939</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1601513758836819</v>
+        <v>0.6227972548773737</v>
       </c>
       <c r="N6" t="n">
-        <v>137.3890483339887</v>
+        <v>35.95664207398163</v>
       </c>
       <c r="O6" t="n">
-        <v>278.7242208772051</v>
+        <v>72.92122566220745</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_6</t>
+          <t>model_1_39_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.994017011217202</v>
+        <v>0.8414091879874033</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7962149907236742</v>
+        <v>0.602546063764021</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7396673511476721</v>
+        <v>0.7456034840616392</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9899580876698759</v>
+        <v>0.8193773589563481</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02490435053524747</v>
+        <v>0.3758907746354789</v>
       </c>
       <c r="G7" t="n">
-        <v>1.362711295374477</v>
+        <v>2.657776301717089</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9311947899904942</v>
+        <v>0.9099615867539965</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03210342730579865</v>
+        <v>0.9461100217244106</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4147111345879763</v>
+        <v>1.083911264167323</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1578111229769545</v>
+        <v>0.6130993187367597</v>
       </c>
       <c r="L7" t="n">
-        <v>1.382911282099073</v>
+        <v>0.7840465538551874</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1602964904105943</v>
+        <v>0.6227550201323931</v>
       </c>
       <c r="N7" t="n">
-        <v>137.3854255409645</v>
+        <v>35.9569133415685</v>
       </c>
       <c r="O7" t="n">
-        <v>278.7205980841808</v>
+        <v>72.92149692979433</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_4</t>
+          <t>model_1_39_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9940311869911445</v>
+        <v>0.8414292401073868</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7962099416378051</v>
+        <v>0.602539402355238</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7393471229770658</v>
+        <v>0.74550356081447</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9911768204454566</v>
+        <v>0.8196265930780177</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02484534349776342</v>
+        <v>0.3758432472483747</v>
       </c>
       <c r="G8" t="n">
-        <v>1.362745058634933</v>
+        <v>2.657820846588294</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9323402275888573</v>
+        <v>0.9103190064152386</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02820720736483378</v>
+        <v>0.9448045214897511</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4161914038617499</v>
+        <v>1.084636705341304</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1576240574841398</v>
+        <v>0.6130605575702736</v>
       </c>
       <c r="L8" t="n">
-        <v>1.382004032566755</v>
+        <v>0.7840738588696332</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1601064788232646</v>
+        <v>0.6227156485162817</v>
       </c>
       <c r="N8" t="n">
-        <v>137.390169856788</v>
+        <v>35.95716623626681</v>
       </c>
       <c r="O8" t="n">
-        <v>278.7253424000044</v>
+        <v>72.92174982449264</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_7</t>
+          <t>model_1_39_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9939619156915229</v>
+        <v>0.8414478283737765</v>
       </c>
       <c r="C9" t="n">
-        <v>0.796105855177781</v>
+        <v>0.6025316152525444</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7393589627689272</v>
+        <v>0.7454008127517988</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9890472573302804</v>
+        <v>0.8198772120581119</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0251336871317625</v>
+        <v>0.3757991894762776</v>
       </c>
       <c r="G9" t="n">
-        <v>1.363441085272388</v>
+        <v>2.657872918979862</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9322978773398796</v>
+        <v>0.9106865302777382</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0350153005261414</v>
+        <v>0.943491767300512</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4150956385393101</v>
+        <v>1.085384990752832</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1585360751745876</v>
+        <v>0.6130246238743413</v>
       </c>
       <c r="L9" t="n">
-        <v>1.386437395742533</v>
+        <v>0.7840991705515254</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1610328598806537</v>
+        <v>0.622679148900559</v>
       </c>
       <c r="N9" t="n">
-        <v>137.3670924317497</v>
+        <v>35.95740069760105</v>
       </c>
       <c r="O9" t="n">
-        <v>278.7022649749661</v>
+        <v>72.92198428582688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_8</t>
+          <t>model_1_39_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9939207763510072</v>
+        <v>0.8414648790571713</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7960506724385752</v>
+        <v>0.6025227246478424</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7393215170421337</v>
+        <v>0.7452953249072161</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9882451853234963</v>
+        <v>0.8201291842990904</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02530493073494924</v>
+        <v>0.3757587760720709</v>
       </c>
       <c r="G10" t="n">
-        <v>1.36381009250355</v>
+        <v>2.657932370494442</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9324318185333922</v>
+        <v>0.9110638541812741</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0375794794909954</v>
+        <v>0.9421719246661185</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4149288885641624</v>
+        <v>1.086155737044382</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1590752360832736</v>
+        <v>0.6129916606872159</v>
       </c>
       <c r="L10" t="n">
-        <v>1.389070313535541</v>
+        <v>0.7841223885033821</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1615805120346884</v>
+        <v>0.6226456665761875</v>
       </c>
       <c r="N10" t="n">
-        <v>137.3535120230559</v>
+        <v>35.95761578895048</v>
       </c>
       <c r="O10" t="n">
-        <v>278.6886845662723</v>
+        <v>72.9221993771763</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_39_9</t>
+          <t>model_1_39_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9939000701153092</v>
+        <v>0.841480473877936</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7960361908891572</v>
+        <v>0.6025128909188846</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7394848909900977</v>
+        <v>0.7451869153108502</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9875773571117991</v>
+        <v>0.8203827180723282</v>
       </c>
       <c r="F11" t="n">
-        <v>0.025391120993833</v>
+        <v>0.3757218133427479</v>
       </c>
       <c r="G11" t="n">
-        <v>1.36390693069119</v>
+        <v>2.657998128685263</v>
       </c>
       <c r="H11" t="n">
-        <v>0.93184743939449</v>
+        <v>0.9114516290215251</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03971448861497151</v>
+        <v>0.9408439026511607</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4140381308944215</v>
+        <v>1.086947587399063</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1593459161504712</v>
+        <v>0.6129615104904613</v>
       </c>
       <c r="L11" t="n">
-        <v>1.390395512620209</v>
+        <v>0.784143624003998</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1618554550423635</v>
+        <v>0.6226150415439731</v>
       </c>
       <c r="N11" t="n">
-        <v>137.3467114664848</v>
+        <v>35.95781253510666</v>
       </c>
       <c r="O11" t="n">
-        <v>278.6818840097013</v>
+        <v>72.92239612333249</v>
       </c>
     </row>
   </sheetData>
